--- a/ReadMultipleExcelFiles/工作簿4.xlsx
+++ b/ReadMultipleExcelFiles/工作簿4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waynezhang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waynezhang/Documents/WorkSpaceCode/PythonProjects/ReadMultipleExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>常熟幼儿园</t>
   </si>
@@ -89,16 +89,24 @@
     <t>中级9</t>
   </si>
   <si>
+    <t>初级11</t>
+  </si>
+  <si>
+    <t>初级12</t>
+  </si>
+  <si>
+    <t>初级13</t>
+  </si>
+  <si>
     <t>中级10</t>
-  </si>
-  <si>
-    <t>初级11</t>
-  </si>
-  <si>
-    <t>初级12</t>
-  </si>
-  <si>
-    <t>初级13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <rPh sb="0" eb="1">
+      <t>dan'wei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -469,13 +477,15 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
@@ -501,16 +511,16 @@
         <v>19</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
